--- a/public/data/sheets/sample.xlsx
+++ b/public/data/sheets/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/projects/ella/map-visualization/data/sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/projects/ella/map-visualization/public/data/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1300E523-6C87-454D-AA39-D13BA6A24D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4FAD36-DF64-4D4A-B93A-CB1046E3665F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="550">
   <si>
     <t>地址</t>
   </si>
@@ -1683,6 +1683,9 @@
   </si>
   <si>
     <t>v3</t>
+  </si>
+  <si>
+    <t>cat</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1780,6 +1783,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2086,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2099,7 +2105,7 @@
     <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>363</v>
       </c>
@@ -2121,8 +2127,11 @@
       <c r="G1" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2137,18 +2146,21 @@
       </c>
       <c r="E2">
         <f ca="1">RAND()*100</f>
-        <v>30.126553162792646</v>
+        <v>27.812461441250459</v>
       </c>
       <c r="F2">
         <f ca="1">100+RAND()*100</f>
-        <v>122.21075569984586</v>
+        <v>152.73961400905554</v>
       </c>
       <c r="G2">
         <f ca="1">RAND()*10000</f>
-        <v>675.55696879120444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>4264.7752195520579</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2163,18 +2175,21 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RAND()*100</f>
-        <v>80.768730756155719</v>
+        <v>54.815012966473745</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="1">100+RAND()*100</f>
-        <v>124.39006199968208</v>
+        <v>169.5567872508318</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="2">RAND()*10000</f>
-        <v>8470.134389994615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>705.21566036976458</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2189,18 +2204,21 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>55.02740159812258</v>
+        <v>3.4917185738547518</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>186.70070152424529</v>
+        <v>147.83270442027322</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>9629.8124379595374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>6857.7806577888859</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2215,18 +2233,21 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>25.551442239450818</v>
+        <v>33.134827709565783</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>163.8197997493736</v>
+        <v>149.26156779768456</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>8697.6977580137154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>941.26150869710989</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -2241,18 +2262,21 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>13.471773178697077</v>
+        <v>8.5267088569507816</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>139.22026148589418</v>
+        <v>191.14676117231878</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>8327.944699312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1140.7000428073343</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2267,18 +2291,21 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>72.617781957967736</v>
+        <v>34.829126329474022</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>109.23624831725095</v>
+        <v>128.7704944072533</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>422.82293345886177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>3146.7588052499764</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -2293,18 +2320,21 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>16.943019411288084</v>
+        <v>29.919339655803533</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>148.15673678511263</v>
+        <v>134.12968380516293</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>5311.037927502367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>8816.6493964771144</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -2319,18 +2349,21 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>46.65311376755735</v>
+        <v>80.76629687345843</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>186.59989599895349</v>
+        <v>194.41464572016287</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>1001.480413372825</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>6449.5674276116697</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2345,18 +2378,21 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5759302979965231</v>
+        <v>43.968998503110754</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>191.31010508959815</v>
+        <v>138.08748154199878</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>266.53857463450612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>1564.8487392109189</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -2371,18 +2407,21 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>90.870418602336471</v>
+        <v>50.014162137662211</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>150.8274845724963</v>
+        <v>194.94294942774232</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>7755.4158353207295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>8050.742100593332</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -2397,18 +2436,21 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>99.364926788603498</v>
+        <v>93.999446903717399</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>151.63666683909094</v>
+        <v>163.75840387101633</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>295.57441349038152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>5612.6096439928488</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -2423,18 +2465,21 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47338058204686728</v>
+        <v>68.204775244578428</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>186.53698765026289</v>
+        <v>101.72198169612793</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>2979.1560019035469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>4429.8352442974629</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -2449,18 +2494,21 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>78.068531932139948</v>
+        <v>33.232321199596427</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>140.85376773610909</v>
+        <v>177.17140445722941</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>4914.0228762228408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>3216.5465770851829</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -2475,18 +2523,21 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2276554630636038</v>
+        <v>55.636643108623829</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>131.49485751186756</v>
+        <v>182.82915006460183</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>3022.1282865362455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>5059.8406583132837</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -2501,18 +2552,21 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>10.878894374777982</v>
+        <v>5.21138379466991</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>119.47230308269782</v>
+        <v>155.12939202966305</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>1786.8412471248218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1003.1725734304042</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -2527,18 +2581,21 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>58.518201486414434</v>
+        <v>85.376024610724713</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>120.35062478803113</v>
+        <v>192.49799520822518</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>4414.7545466006659</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>407.27540999117349</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -2553,18 +2610,21 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>85.857712437042323</v>
+        <v>6.1026489588554833</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>124.04943218075097</v>
+        <v>169.03399391968142</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>5707.8734647614183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>35.549211500461865</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -2579,18 +2639,21 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>43.983997543278299</v>
+        <v>4.916846848349965</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>155.69694674738986</v>
+        <v>107.46931383497014</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>3648.2464382395897</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>1132.0663860456425</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -2605,18 +2668,21 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>29.855068543215037</v>
+        <v>23.854059192412834</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>155.12981170742245</v>
+        <v>123.71154399724267</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>2186.9377912202294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>4628.7018639437338</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -2631,18 +2697,21 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3.499264845530814</v>
+        <v>89.309849005543384</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>118.42088673105243</v>
+        <v>120.30854791090869</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>2564.1732683977416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>3771.1635460001835</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -2657,18 +2726,21 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>73.16686823953323</v>
+        <v>9.921263677977521</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>104.10002898967245</v>
+        <v>129.17973906335513</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>3692.7559912309262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>1496.4488721870939</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -2683,18 +2755,21 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>48.467543507017567</v>
+        <v>80.81759245502775</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>127.48509531217668</v>
+        <v>181.90548570671226</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>2850.5236720861117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>2070.5551774692431</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -2709,18 +2784,21 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>52.309661591253864</v>
+        <v>28.478384598696959</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>118.71704796876942</v>
+        <v>127.0949982562378</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>8014.1183265280588</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>8813.2397477721152</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -2735,18 +2813,21 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>35.108210262675499</v>
+        <v>73.533599669322541</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>152.99036858555147</v>
+        <v>196.33422934497918</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>2837.4401712174345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>3588.2878350511182</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -2761,18 +2842,21 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>97.865406910933189</v>
+        <v>36.76337638506417</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>133.63329417089807</v>
+        <v>191.00220936059446</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>8626.7503711445297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>5279.4398166082647</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
@@ -2787,18 +2871,21 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1093134083788492</v>
+        <v>90.956483407874629</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>148.33153292252422</v>
+        <v>173.62881551462129</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>9586.0573797722645</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>2490.4571137418152</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -2813,18 +2900,21 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>15.64296143310524</v>
+        <v>4.6163409906053499</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>161.39149910232459</v>
+        <v>174.26952421252983</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>4461.3475744676707</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>9552.6199472214976</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
@@ -2839,18 +2929,21 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>63.442876005875092</v>
+        <v>23.735214553474947</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>177.69612923874166</v>
+        <v>188.67332245395005</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>6833.7480748952721</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>9253.5649966481706</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
@@ -2865,18 +2958,21 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>98.534448490576963</v>
+        <v>40.224450142591159</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>158.02155954528828</v>
+        <v>129.79122513840196</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>5438.6025289242471</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>5443.383374767116</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -2891,18 +2987,21 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>20.575267245217876</v>
+        <v>20.024300458078692</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>133.61163209790277</v>
+        <v>136.79121903160211</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>2027.5004905019832</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>5416.8424102507443</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
         <v>64</v>
       </c>
@@ -2917,18 +3016,21 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>84.687359726557233</v>
+        <v>35.316779414705145</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>104.95961595204463</v>
+        <v>183.56927860732026</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>4269.4480781609955</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>8412.7300042134484</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
@@ -2943,18 +3045,21 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>80.902649826106398</v>
+        <v>67.515959130276087</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>131.28536757445477</v>
+        <v>198.66379358133838</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>7866.0091253402934</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>3095.4813544738013</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -2969,18 +3074,21 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>56.466947554409231</v>
+        <v>81.197235983083502</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>189.49704167808906</v>
+        <v>116.59167756203497</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>6516.6331898910748</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>2269.9136825672972</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
@@ -2995,18 +3103,21 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>45.360237194184968</v>
+        <v>48.166246503455326</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>134.64925011340966</v>
+        <v>195.12143485702694</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>3831.4331783445809</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>1158.927489838384</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
@@ -3021,18 +3132,21 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>91.846055535604293</v>
+        <v>21.149516673460312</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>108.21801597614251</v>
+        <v>176.89642729311674</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>75.173569971733741</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>567.93966686778492</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
@@ -3047,18 +3161,21 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>63.810327855045067</v>
+        <v>38.989210469012967</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>115.63893305200457</v>
+        <v>168.58545947282391</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>7789.9904076288794</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>5096.5545691537882</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
@@ -3073,18 +3190,21 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>83.182284169947039</v>
+        <v>38.44050424006943</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>169.45558925184889</v>
+        <v>149.0017893015625</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>7033.4254557512268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>1933.1518343220898</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
@@ -3099,18 +3219,21 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6766832372541867</v>
+        <v>43.00263277810614</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>186.93960064001192</v>
+        <v>107.33180790599258</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="2"/>
-        <v>2332.4482853804184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>6489.2114615624459</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
         <v>80</v>
       </c>
@@ -3125,18 +3248,21 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>31.199532750216207</v>
+        <v>22.796710565719959</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>172.37500425950026</v>
+        <v>129.82802626021686</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="2"/>
-        <v>3717.9522754880136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>6497.7259483668104</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
         <v>82</v>
       </c>
@@ -3151,18 +3277,21 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>70.374681561618175</v>
+        <v>59.819242163652589</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="1"/>
-        <v>192.41653300419725</v>
+        <v>128.17105475413811</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="2"/>
-        <v>3768.6578349208999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>9909.7402595374078</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
         <v>84</v>
       </c>
@@ -3177,18 +3306,21 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>39.722293946134712</v>
+        <v>64.110308655748</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="1"/>
-        <v>123.48783414956605</v>
+        <v>124.35826288713425</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="2"/>
-        <v>2430.5113346710327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>4411.5881574928972</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
         <v>86</v>
       </c>
@@ -3203,18 +3335,21 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>71.380723736290648</v>
+        <v>36.801466664425078</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="1"/>
-        <v>154.7374113807293</v>
+        <v>125.52059082058594</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="2"/>
-        <v>7474.0468898790787</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>5625.725887561769</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
         <v>87</v>
       </c>
@@ -3229,18 +3364,21 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>46.246036640258836</v>
+        <v>22.91282280771054</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="1"/>
-        <v>160.52960286108552</v>
+        <v>162.91741238801984</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="2"/>
-        <v>604.62766780638663</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>6908.8446159184314</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="3" t="s">
         <v>89</v>
       </c>
@@ -3255,18 +3393,21 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>88.17032629737011</v>
+        <v>51.742814098863391</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="1"/>
-        <v>112.01635744145494</v>
+        <v>117.53216435229587</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="2"/>
-        <v>2979.7497225098168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>4567.4248614189328</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
         <v>91</v>
       </c>
@@ -3281,18 +3422,21 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>83.353623556587365</v>
+        <v>66.044349096510956</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="1"/>
-        <v>155.10843035373881</v>
+        <v>178.43127455785168</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="2"/>
-        <v>9174.1920930332617</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>7315.6169477684161</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="3" t="s">
         <v>93</v>
       </c>
@@ -3307,18 +3451,21 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3568933849134526</v>
+        <v>14.656460838374253</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="1"/>
-        <v>158.88530211428474</v>
+        <v>167.7739263627451</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="2"/>
-        <v>2265.0965199714501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>1128.8703310468084</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
@@ -3333,18 +3480,21 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>91.706972290799285</v>
+        <v>49.456208468797527</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="1"/>
-        <v>191.88590271234028</v>
+        <v>130.06734348280412</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="2"/>
-        <v>28.014850306030681</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>546.54400986645976</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="3" t="s">
         <v>97</v>
       </c>
@@ -3359,18 +3509,21 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>36.263655971200393</v>
+        <v>30.449767768645952</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="1"/>
-        <v>107.28479945365507</v>
+        <v>138.37355056548373</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="2"/>
-        <v>2414.6633762408464</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>9235.6642771287898</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="3" t="s">
         <v>99</v>
       </c>
@@ -3385,18 +3538,21 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>48.8320427705399</v>
+        <v>5.730608733657661</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="1"/>
-        <v>139.42068473206143</v>
+        <v>137.57327556516415</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="2"/>
-        <v>5624.5634172427235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>6038.1784641679433</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="3" t="s">
         <v>101</v>
       </c>
@@ -3411,18 +3567,21 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>75.999594998764252</v>
+        <v>38.218345525101313</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="1"/>
-        <v>143.82660953176793</v>
+        <v>158.07073685988425</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="2"/>
-        <v>1399.9848781854473</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>1315.6350939027418</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="3" t="s">
         <v>103</v>
       </c>
@@ -3437,18 +3596,21 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>18.115694184791352</v>
+        <v>77.674424583929607</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="1"/>
-        <v>198.24637502156446</v>
+        <v>197.04702974032801</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="2"/>
-        <v>7691.1065817626777</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>3276.7992177709802</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="3" t="s">
         <v>105</v>
       </c>
@@ -3463,18 +3625,21 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>22.605579912491535</v>
+        <v>17.072172512795525</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="1"/>
-        <v>160.95944002086605</v>
+        <v>193.4529410356682</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="2"/>
-        <v>6837.0385207487507</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>8600.4058130919566</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="3" t="s">
         <v>107</v>
       </c>
@@ -3489,18 +3654,21 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>24.78018032228675</v>
+        <v>53.832523482367357</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="1"/>
-        <v>103.62816586170379</v>
+        <v>119.31384111307777</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="2"/>
-        <v>7631.0979923223395</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>324.30700536456249</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="3" t="s">
         <v>109</v>
       </c>
@@ -3515,18 +3683,21 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>29.445785159523709</v>
+        <v>6.1775558826868799</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="1"/>
-        <v>114.91722106964868</v>
+        <v>160.72082847663523</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="2"/>
-        <v>8470.3887503173937</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>7179.0537615140838</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="3" t="s">
         <v>111</v>
       </c>
@@ -3541,18 +3712,21 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>88.687418058882557</v>
+        <v>36.785451414354398</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="1"/>
-        <v>121.58586522503956</v>
+        <v>167.08871283570645</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="2"/>
-        <v>8094.0791416903712</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>5336.6923212423826</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="3" t="s">
         <v>113</v>
       </c>
@@ -3567,18 +3741,21 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>32.232273588896923</v>
+        <v>9.6951907813773381</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="1"/>
-        <v>104.5296299909896</v>
+        <v>165.15188416786708</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="2"/>
-        <v>1998.3409114337057</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>6506.5937646546299</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="3" t="s">
         <v>115</v>
       </c>
@@ -3593,18 +3770,21 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>29.573610099012125</v>
+        <v>43.951326413368882</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="1"/>
-        <v>156.59947247933837</v>
+        <v>197.9028021017651</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="2"/>
-        <v>7067.5115306593561</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>6260.0695335337477</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
         <v>117</v>
       </c>
@@ -3619,18 +3799,21 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>78.356642410198035</v>
+        <v>63.328907363637413</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="1"/>
-        <v>107.57734757033595</v>
+        <v>195.44232006837842</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="2"/>
-        <v>6249.4084586937333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>7613.2552720498379</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="3" t="s">
         <v>119</v>
       </c>
@@ -3645,18 +3828,21 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>55.251024546912156</v>
+        <v>29.947430397647324</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="1"/>
-        <v>155.26590361479657</v>
+        <v>161.76981085317391</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="2"/>
-        <v>8675.0090584447535</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>7584.4125576299539</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="3" t="s">
         <v>121</v>
       </c>
@@ -3671,18 +3857,21 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>49.272181311583786</v>
+        <v>85.63051250056796</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="1"/>
-        <v>194.66318928331043</v>
+        <v>109.39243689373112</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="2"/>
-        <v>4853.5622915405984</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>3155.4396731490565</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="3" t="s">
         <v>123</v>
       </c>
@@ -3697,18 +3886,21 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>71.434853417601104</v>
+        <v>84.819145585802019</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="1"/>
-        <v>138.62282326030476</v>
+        <v>172.23590434953405</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="2"/>
-        <v>2416.2563566633821</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>8656.1305765553898</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="3" t="s">
         <v>125</v>
       </c>
@@ -3723,18 +3915,21 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>90.694432545028448</v>
+        <v>96.182104202968176</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="1"/>
-        <v>164.41729637339211</v>
+        <v>191.85312432403938</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="2"/>
-        <v>6409.745336718117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>1136.314703475274</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="3" t="s">
         <v>127</v>
       </c>
@@ -3749,18 +3944,21 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>76.589155801017213</v>
+        <v>19.389766283588273</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="1"/>
-        <v>168.84587287286763</v>
+        <v>131.20800284807075</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="2"/>
-        <v>5066.0079611731417</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>1055.164597785765</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
@@ -3775,18 +3973,21 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>33.909357792229422</v>
+        <v>25.926116947685951</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="1"/>
-        <v>132.18107160937217</v>
+        <v>174.88956002701357</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="2"/>
-        <v>5791.5181857519437</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>5794.4357513039558</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="3" t="s">
         <v>131</v>
       </c>
@@ -3801,18 +4002,21 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>91.93118553178418</v>
+        <v>12.78309422856525</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="1"/>
-        <v>167.33039941786888</v>
+        <v>143.47279078332554</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="2"/>
-        <v>695.56360545457221</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>3079.6581141399993</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="3" t="s">
         <v>133</v>
       </c>
@@ -3827,18 +4031,21 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="3">RAND()*100</f>
-        <v>93.730983777891424</v>
+        <v>63.067491079445183</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F130" ca="1" si="4">100+RAND()*100</f>
-        <v>122.38616895464695</v>
+        <v>130.60241924535396</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G130" ca="1" si="5">RAND()*10000</f>
-        <v>7953.7608609442204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>9014.5285433771423</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="3" t="s">
         <v>135</v>
       </c>
@@ -3853,18 +4060,21 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="3"/>
-        <v>57.70042762646117</v>
+        <v>54.060313062121246</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="4"/>
-        <v>103.2085239652644</v>
+        <v>110.03788578421162</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="5"/>
-        <v>1621.777042992092</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>3729.8833334717751</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="3" t="s">
         <v>137</v>
       </c>
@@ -3879,18 +4089,21 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="3"/>
-        <v>54.864725012942415</v>
+        <v>30.794181110346042</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="4"/>
-        <v>138.72359335908916</v>
+        <v>183.23263317502864</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="5"/>
-        <v>5227.6706735581165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>8109.6665699811101</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="3" t="s">
         <v>139</v>
       </c>
@@ -3905,18 +4118,21 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0834247532759216</v>
+        <v>36.394636751149548</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="4"/>
-        <v>183.88732065383962</v>
+        <v>168.07610270961445</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="5"/>
-        <v>1879.7146108906104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>8095.8362406892729</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="3" t="s">
         <v>141</v>
       </c>
@@ -3931,18 +4147,21 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="3"/>
-        <v>30.78946506453012</v>
+        <v>2.0078887516067567</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="4"/>
-        <v>169.42289149418338</v>
+        <v>143.3026904502629</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
-        <v>4334.2792239560877</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>3956.1368144989142</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="3" t="s">
         <v>143</v>
       </c>
@@ -3957,18 +4176,21 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="3"/>
-        <v>94.197079346930437</v>
+        <v>48.818273671972804</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="4"/>
-        <v>196.14466365112361</v>
+        <v>141.49807410657459</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
-        <v>3463.8376576240848</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>765.12090842883356</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="3" t="s">
         <v>145</v>
       </c>
@@ -3983,18 +4205,21 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="3"/>
-        <v>88.667279628007506</v>
+        <v>26.06610875030071</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="4"/>
-        <v>135.64043792119332</v>
+        <v>143.83357116512644</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
-        <v>5075.326649509052</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>7885.8121385741388</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="3" t="s">
         <v>147</v>
       </c>
@@ -4009,18 +4234,21 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="3"/>
-        <v>96.358559254309313</v>
+        <v>99.918885066268388</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="4"/>
-        <v>148.29664330853649</v>
+        <v>193.56674425089867</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
-        <v>6690.9036295696687</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>3599.3070296299247</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="3" t="s">
         <v>149</v>
       </c>
@@ -4035,18 +4263,21 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="3"/>
-        <v>69.199347861228119</v>
+        <v>21.379378841949602</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="4"/>
-        <v>181.65572641624607</v>
+        <v>119.12569239449738</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
-        <v>297.78674055867759</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>6778.329970062111</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="3" t="s">
         <v>151</v>
       </c>
@@ -4061,18 +4292,21 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="3"/>
-        <v>71.109562551533912</v>
+        <v>1.2098439969138841</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="4"/>
-        <v>115.89461248425302</v>
+        <v>164.76251245366998</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="5"/>
-        <v>4122.7899641308168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>8682.5184058461527</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="3" t="s">
         <v>153</v>
       </c>
@@ -4087,18 +4321,21 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="3"/>
-        <v>26.323438408909517</v>
+        <v>70.143745219464364</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="4"/>
-        <v>156.97363357188902</v>
+        <v>109.72621633443391</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="5"/>
-        <v>330.88244200535132</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>3575.4562327654671</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="3" t="s">
         <v>155</v>
       </c>
@@ -4113,18 +4350,21 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="3"/>
-        <v>88.084587755183179</v>
+        <v>53.522091406428061</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="4"/>
-        <v>138.00093834591195</v>
+        <v>119.73547931373356</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="5"/>
-        <v>9813.7099789048625</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>8004.3770523552203</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="3" t="s">
         <v>157</v>
       </c>
@@ -4139,18 +4379,21 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4714494000563825</v>
+        <v>67.214443267054619</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="4"/>
-        <v>171.78862534708259</v>
+        <v>189.30601378126079</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="5"/>
-        <v>2000.2153462107574</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>1853.4337734755036</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="3" t="s">
         <v>159</v>
       </c>
@@ -4165,18 +4408,21 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="3"/>
-        <v>63.11294570164069</v>
+        <v>45.090028821805006</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="4"/>
-        <v>125.96633565562129</v>
+        <v>116.35688928704656</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="5"/>
-        <v>2011.9899998300684</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>5731.0873917568806</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="3" t="s">
         <v>161</v>
       </c>
@@ -4191,18 +4437,21 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="3"/>
-        <v>97.772910356401539</v>
+        <v>82.860224853251523</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="4"/>
-        <v>170.50908541541409</v>
+        <v>111.44019332250446</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="5"/>
-        <v>3361.4406559185295</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>9977.2813863930223</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="3" t="s">
         <v>163</v>
       </c>
@@ -4217,18 +4466,21 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="3"/>
-        <v>11.194134138767087</v>
+        <v>32.603325350242663</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="4"/>
-        <v>179.19263702494266</v>
+        <v>102.54065734049247</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="5"/>
-        <v>159.68464550031425</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>966.33908114915573</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="3" t="s">
         <v>165</v>
       </c>
@@ -4243,18 +4495,21 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4851438742844936</v>
+        <v>54.378083554432699</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="4"/>
-        <v>172.83270309652218</v>
+        <v>154.55201934958311</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="5"/>
-        <v>1865.7359386469918</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>623.74457782400248</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="3" t="s">
         <v>167</v>
       </c>
@@ -4269,18 +4524,21 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="3"/>
-        <v>40.727818306781252</v>
+        <v>14.653328981607894</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="4"/>
-        <v>102.61478479611525</v>
+        <v>176.21210928221024</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="5"/>
-        <v>9778.6672228274492</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>9936.523349447707</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="3" t="s">
         <v>169</v>
       </c>
@@ -4295,18 +4553,21 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="3"/>
-        <v>45.759152143660373</v>
+        <v>71.031254327451421</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="4"/>
-        <v>162.8437597223535</v>
+        <v>134.91976081992954</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="5"/>
-        <v>3679.6293575639593</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>8523.7167128963447</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="3" t="s">
         <v>171</v>
       </c>
@@ -4321,18 +4582,21 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="3"/>
-        <v>40.979161474029148</v>
+        <v>68.034234987886947</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="4"/>
-        <v>178.11363497846946</v>
+        <v>182.16490245541877</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="5"/>
-        <v>6626.4198449053592</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>6507.0312261736917</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="3" t="s">
         <v>173</v>
       </c>
@@ -4347,18 +4611,21 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="3"/>
-        <v>25.644729312744865</v>
+        <v>18.742399790741992</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="4"/>
-        <v>158.2967005965647</v>
+        <v>124.29854807874993</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="5"/>
-        <v>402.72294819404755</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>9442.6405853759679</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="3" t="s">
         <v>175</v>
       </c>
@@ -4373,18 +4640,21 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="3"/>
-        <v>68.108690056241755</v>
+        <v>77.067465130248209</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="4"/>
-        <v>144.08658775193919</v>
+        <v>147.32777061414376</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="5"/>
-        <v>1212.2036120322666</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>8833.5994137516973</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="3" t="s">
         <v>177</v>
       </c>
@@ -4399,18 +4669,21 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="3"/>
-        <v>14.827976255674846</v>
+        <v>77.580488893343897</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="4"/>
-        <v>183.29556490172308</v>
+        <v>167.59542934527764</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="5"/>
-        <v>4594.7805188788707</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>910.09488920813726</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="3" t="s">
         <v>179</v>
       </c>
@@ -4425,18 +4698,21 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="3"/>
-        <v>23.641624276913255</v>
+        <v>88.739699834302513</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="4"/>
-        <v>173.99376989878786</v>
+        <v>186.24763429501371</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="5"/>
-        <v>8584.8663190357092</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>7653.3248946536869</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="3" t="s">
         <v>181</v>
       </c>
@@ -4451,18 +4727,21 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="3"/>
-        <v>96.746767288165969</v>
+        <v>4.2366363886623066</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="4"/>
-        <v>182.88182813235608</v>
+        <v>180.76367626634078</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="5"/>
-        <v>9331.7569985302416</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>2597.8879547284218</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="3" t="s">
         <v>183</v>
       </c>
@@ -4477,18 +4756,21 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="3"/>
-        <v>26.427166126060776</v>
+        <v>55.108976167818689</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="4"/>
-        <v>176.97628477142558</v>
+        <v>187.29004087102265</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="5"/>
-        <v>1231.0717601508481</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>3348.705904297241</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="3" t="s">
         <v>185</v>
       </c>
@@ -4503,18 +4785,21 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="3"/>
-        <v>85.739226564121523</v>
+        <v>99.519996763069827</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="4"/>
-        <v>108.91396260806418</v>
+        <v>180.57226680577398</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="5"/>
-        <v>2345.2114794890522</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>7738.6670429418773</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="3" t="s">
         <v>187</v>
       </c>
@@ -4529,18 +4814,21 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="3"/>
-        <v>69.838972462819854</v>
+        <v>82.56379728318916</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="4"/>
-        <v>190.93278791001467</v>
+        <v>138.63302859486359</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="5"/>
-        <v>9905.9653119094801</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>3623.9313094869954</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="3" t="s">
         <v>189</v>
       </c>
@@ -4555,18 +4843,21 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="3"/>
-        <v>53.997913654448816</v>
+        <v>16.115609644870275</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="4"/>
-        <v>136.15782321892931</v>
+        <v>187.04283766374726</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="5"/>
-        <v>3541.0161317250399</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>7734.5168100432838</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="3" t="s">
         <v>191</v>
       </c>
@@ -4581,18 +4872,21 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="3"/>
-        <v>34.026298789950502</v>
+        <v>37.310530729169514</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="4"/>
-        <v>161.53830590694827</v>
+        <v>124.48969800322151</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="5"/>
-        <v>4679.3120453584943</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>8736.9691239102303</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="3" t="s">
         <v>193</v>
       </c>
@@ -4607,18 +4901,21 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="3"/>
-        <v>11.026796007115713</v>
+        <v>0.27463377578139658</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="4"/>
-        <v>109.33436329422129</v>
+        <v>118.52461371938558</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="5"/>
-        <v>9189.3225501069483</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>2967.889816981467</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="3" t="s">
         <v>195</v>
       </c>
@@ -4633,18 +4930,21 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="3"/>
-        <v>33.345374339089275</v>
+        <v>48.830499712984157</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="4"/>
-        <v>185.78327454739383</v>
+        <v>110.82595776140704</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="5"/>
-        <v>6782.3677537163494</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>2643.666919219625</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="3" t="s">
         <v>197</v>
       </c>
@@ -4659,18 +4959,21 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="3"/>
-        <v>73.330945930979041</v>
+        <v>46.000189192237471</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="4"/>
-        <v>103.44980971980372</v>
+        <v>136.05997736337059</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="5"/>
-        <v>7502.8216128238791</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>7185.9907181724002</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="3" t="s">
         <v>199</v>
       </c>
@@ -4685,18 +4988,21 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="3"/>
-        <v>73.563934599669793</v>
+        <v>44.93016036418306</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="4"/>
-        <v>102.1838223687889</v>
+        <v>178.24112956504348</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="5"/>
-        <v>870.3043777924313</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>9127.6421081861117</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="3" t="s">
         <v>201</v>
       </c>
@@ -4711,18 +5017,21 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="3"/>
-        <v>59.604273442407631</v>
+        <v>76.251081117041011</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="4"/>
-        <v>148.16256857068367</v>
+        <v>150.37302374841113</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="5"/>
-        <v>3523.6448230668261</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>6175.8611131931975</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="3" t="s">
         <v>203</v>
       </c>
@@ -4737,18 +5046,21 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="3"/>
-        <v>74.181018905734248</v>
+        <v>57.660673014443631</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="4"/>
-        <v>194.65409337263665</v>
+        <v>188.52231603239323</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="5"/>
-        <v>7884.8070154829738</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>5885.6830321288171</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="3" t="s">
         <v>205</v>
       </c>
@@ -4763,18 +5075,21 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="3"/>
-        <v>85.455022673806852</v>
+        <v>83.187547636677877</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="4"/>
-        <v>108.3987484864931</v>
+        <v>149.89660782461016</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="5"/>
-        <v>816.22793626649479</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>186.84097202280702</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="3" t="s">
         <v>207</v>
       </c>
@@ -4789,18 +5104,21 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="3"/>
-        <v>88.194373873930758</v>
+        <v>7.1285643325676773</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="4"/>
-        <v>140.83209260938281</v>
+        <v>119.61010652059505</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="5"/>
-        <v>6473.6952554116297</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>8154.3321510722153</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="3" t="s">
         <v>209</v>
       </c>
@@ -4815,18 +5133,21 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="3"/>
-        <v>91.965185484575713</v>
+        <v>60.024228047337701</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="4"/>
-        <v>173.43671275765638</v>
+        <v>145.92124794720962</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="5"/>
-        <v>8264.3678871338125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>5367.5858672382174</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="3" t="s">
         <v>211</v>
       </c>
@@ -4841,18 +5162,21 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="3"/>
-        <v>97.452265811703768</v>
+        <v>75.326717735975436</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="4"/>
-        <v>192.27569098831236</v>
+        <v>195.79830645083121</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="5"/>
-        <v>9564.8236487811082</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>4290.6024169850498</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="3" t="s">
         <v>213</v>
       </c>
@@ -4867,18 +5191,21 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="3"/>
-        <v>87.72636632904036</v>
+        <v>22.661047204489094</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="4"/>
-        <v>120.33647551417999</v>
+        <v>166.63323911184108</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="5"/>
-        <v>3409.8660223812403</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>8841.2700403480467</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="3" t="s">
         <v>215</v>
       </c>
@@ -4893,18 +5220,21 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="3"/>
-        <v>48.440941805904934</v>
+        <v>44.334490784230887</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="4"/>
-        <v>139.36755291912573</v>
+        <v>150.55396486015289</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="5"/>
-        <v>5379.6765340462962</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>4075.8791178166321</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="3" t="s">
         <v>217</v>
       </c>
@@ -4919,18 +5249,21 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="3"/>
-        <v>69.708573186939887</v>
+        <v>54.948194216246527</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="4"/>
-        <v>194.66254136749495</v>
+        <v>118.91711108756212</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="5"/>
-        <v>299.58657747912287</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>4417.3555316711754</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="3" t="s">
         <v>219</v>
       </c>
@@ -4945,18 +5278,21 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="3"/>
-        <v>96.396626006523618</v>
+        <v>14.673291514195741</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="4"/>
-        <v>170.20934598570517</v>
+        <v>187.90298597795129</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="5"/>
-        <v>8930.9944707192608</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>7847.4422271821422</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="3" t="s">
         <v>221</v>
       </c>
@@ -4971,18 +5307,21 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43807602373764354</v>
+        <v>44.846829717586267</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="4"/>
-        <v>192.59144360960215</v>
+        <v>156.96901741734357</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="5"/>
-        <v>2062.9721988431306</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>1474.2123798009022</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="3" t="s">
         <v>223</v>
       </c>
@@ -4997,18 +5336,21 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="3"/>
-        <v>84.47800599840869</v>
+        <v>13.078869506192737</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="4"/>
-        <v>184.19741295687754</v>
+        <v>150.57827032761111</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="5"/>
-        <v>3028.720887424281</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>5530.7340029760308</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="3" t="s">
         <v>225</v>
       </c>
@@ -5023,18 +5365,21 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="3"/>
-        <v>7.06213886501118</v>
+        <v>53.865789779594728</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="4"/>
-        <v>130.86938259824217</v>
+        <v>134.3565553416388</v>
       </c>
       <c r="G113">
         <f t="shared" ca="1" si="5"/>
-        <v>8998.893398758235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>8450.2948876354694</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="3" t="s">
         <v>227</v>
       </c>
@@ -5049,18 +5394,21 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="3"/>
-        <v>14.117526445308826</v>
+        <v>11.926731061366691</v>
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="4"/>
-        <v>155.69499802663137</v>
+        <v>173.84563644644948</v>
       </c>
       <c r="G114">
         <f t="shared" ca="1" si="5"/>
-        <v>7817.5391489434305</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>9143.807711253954</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="3" t="s">
         <v>229</v>
       </c>
@@ -5075,18 +5423,21 @@
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="3"/>
-        <v>82.923423965100639</v>
+        <v>1.6618850103627847</v>
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="4"/>
-        <v>125.72778747869644</v>
+        <v>127.74679507327716</v>
       </c>
       <c r="G115">
         <f t="shared" ca="1" si="5"/>
-        <v>5477.5741744704246</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>277.68719969997079</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="3" t="s">
         <v>231</v>
       </c>
@@ -5101,18 +5452,21 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="3"/>
-        <v>23.039499224725791</v>
+        <v>35.498260761118402</v>
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="4"/>
-        <v>193.83514195843321</v>
+        <v>168.48845026412513</v>
       </c>
       <c r="G116">
         <f t="shared" ca="1" si="5"/>
-        <v>3735.8672990516038</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>2220.9748998310797</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="3" t="s">
         <v>233</v>
       </c>
@@ -5127,18 +5481,21 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="3"/>
-        <v>74.760928135091007</v>
+        <v>29.486800461883924</v>
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="4"/>
-        <v>156.7440539784659</v>
+        <v>182.3506107335962</v>
       </c>
       <c r="G117">
         <f t="shared" ca="1" si="5"/>
-        <v>4255.5494812810621</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>8786.3929330545416</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="3" t="s">
         <v>235</v>
       </c>
@@ -5153,18 +5510,21 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="3"/>
-        <v>77.272882305924554</v>
+        <v>40.675043458545112</v>
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="4"/>
-        <v>166.19656516423231</v>
+        <v>191.84757098444521</v>
       </c>
       <c r="G118">
         <f t="shared" ca="1" si="5"/>
-        <v>322.47688585669397</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>5374.1952656686062</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="3" t="s">
         <v>237</v>
       </c>
@@ -5179,18 +5539,21 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5474448750705943</v>
+        <v>2.6657132031752129</v>
       </c>
       <c r="F119">
         <f t="shared" ca="1" si="4"/>
-        <v>107.44000656482083</v>
+        <v>122.85518601363788</v>
       </c>
       <c r="G119">
         <f t="shared" ca="1" si="5"/>
-        <v>6543.0167443421014</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>8603.3534228676672</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="3" t="s">
         <v>239</v>
       </c>
@@ -5205,18 +5568,21 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="3"/>
-        <v>14.067450366207424</v>
+        <v>41.078207675194292</v>
       </c>
       <c r="F120">
         <f t="shared" ca="1" si="4"/>
-        <v>194.43461396267756</v>
+        <v>154.43241167907954</v>
       </c>
       <c r="G120">
         <f t="shared" ca="1" si="5"/>
-        <v>5124.963323512934</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>643.49998960799292</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="3" t="s">
         <v>241</v>
       </c>
@@ -5231,18 +5597,21 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="3"/>
-        <v>58.708379560140742</v>
+        <v>18.310217744724699</v>
       </c>
       <c r="F121">
         <f t="shared" ca="1" si="4"/>
-        <v>126.79152437870806</v>
+        <v>182.76755914499455</v>
       </c>
       <c r="G121">
         <f t="shared" ca="1" si="5"/>
-        <v>8786.0313620819725</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>2100.8817930603273</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="3" t="s">
         <v>243</v>
       </c>
@@ -5257,18 +5626,21 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="3"/>
-        <v>91.110044405735877</v>
+        <v>85.073381793525641</v>
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="4"/>
-        <v>111.4182696161387</v>
+        <v>115.03516770867319</v>
       </c>
       <c r="G122">
         <f t="shared" ca="1" si="5"/>
-        <v>2839.216807934376</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>7806.9100644512127</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="3" t="s">
         <v>245</v>
       </c>
@@ -5283,18 +5655,21 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="3"/>
-        <v>12.726459953669966</v>
+        <v>46.554455323827007</v>
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="4"/>
-        <v>113.88223787615206</v>
+        <v>121.406299485589</v>
       </c>
       <c r="G123">
         <f t="shared" ca="1" si="5"/>
-        <v>6271.2567616877577</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>4052.0143420405807</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="3" t="s">
         <v>247</v>
       </c>
@@ -5309,18 +5684,21 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="3"/>
-        <v>92.62374759723609</v>
+        <v>39.343577077258537</v>
       </c>
       <c r="F124">
         <f t="shared" ca="1" si="4"/>
-        <v>120.20605914565778</v>
+        <v>118.48116619914676</v>
       </c>
       <c r="G124">
         <f t="shared" ca="1" si="5"/>
-        <v>5494.4862759703228</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>8721.6683663021395</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="3" t="s">
         <v>249</v>
       </c>
@@ -5335,18 +5713,21 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="3"/>
-        <v>45.761905857217947</v>
+        <v>94.704452682335088</v>
       </c>
       <c r="F125">
         <f t="shared" ca="1" si="4"/>
-        <v>163.01126200519039</v>
+        <v>175.53581445496184</v>
       </c>
       <c r="G125">
         <f t="shared" ca="1" si="5"/>
-        <v>7983.323532478802</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>2934.8610575063262</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="3" t="s">
         <v>251</v>
       </c>
@@ -5361,18 +5742,21 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="3"/>
-        <v>25.145674423713103</v>
+        <v>90.179745872528599</v>
       </c>
       <c r="F126">
         <f t="shared" ca="1" si="4"/>
-        <v>183.95804948608475</v>
+        <v>124.87515420213867</v>
       </c>
       <c r="G126">
         <f t="shared" ca="1" si="5"/>
-        <v>6937.4275907820338</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>4660.2125433725987</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="3" t="s">
         <v>253</v>
       </c>
@@ -5387,18 +5771,21 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="3"/>
-        <v>93.563691486098463</v>
+        <v>80.281668777614755</v>
       </c>
       <c r="F127">
         <f t="shared" ca="1" si="4"/>
-        <v>195.3962888806189</v>
+        <v>150.63710782003147</v>
       </c>
       <c r="G127">
         <f t="shared" ca="1" si="5"/>
-        <v>4359.9992343652038</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>7280.4479101378429</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="3" t="s">
         <v>255</v>
       </c>
@@ -5413,18 +5800,21 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="3"/>
-        <v>40.359900807104324</v>
+        <v>2.6540520836377701</v>
       </c>
       <c r="F128">
         <f t="shared" ca="1" si="4"/>
-        <v>100.93135365273295</v>
+        <v>125.35916460114626</v>
       </c>
       <c r="G128">
         <f t="shared" ca="1" si="5"/>
-        <v>4114.272306523967</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>881.19523366726344</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="3" t="s">
         <v>257</v>
       </c>
@@ -5439,18 +5829,21 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="3"/>
-        <v>85.532343545946674</v>
+        <v>53.672070961502484</v>
       </c>
       <c r="F129">
         <f t="shared" ca="1" si="4"/>
-        <v>177.90390669104005</v>
+        <v>125.9983477880309</v>
       </c>
       <c r="G129">
         <f t="shared" ca="1" si="5"/>
-        <v>8652.2310074616671</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>6352.2428527509946</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="3" t="s">
         <v>259</v>
       </c>
@@ -5465,18 +5858,21 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="3"/>
-        <v>77.790630190155071</v>
+        <v>49.993764850192171</v>
       </c>
       <c r="F130">
         <f t="shared" ca="1" si="4"/>
-        <v>141.23848586344252</v>
+        <v>180.61831901672397</v>
       </c>
       <c r="G130">
         <f t="shared" ca="1" si="5"/>
-        <v>3053.0627545335033</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>2340.028745747511</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="3" t="s">
         <v>261</v>
       </c>
@@ -5491,18 +5887,21 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E183" ca="1" si="6">RAND()*100</f>
-        <v>48.581204024441661</v>
+        <v>79.829167240499302</v>
       </c>
       <c r="F131">
         <f t="shared" ref="F131:F183" ca="1" si="7">100+RAND()*100</f>
-        <v>140.40558803117528</v>
+        <v>143.18522585545071</v>
       </c>
       <c r="G131">
         <f t="shared" ref="G131:G183" ca="1" si="8">RAND()*10000</f>
-        <v>634.44162638369824</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>1503.0630973223713</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="3" t="s">
         <v>263</v>
       </c>
@@ -5517,18 +5916,21 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="6"/>
-        <v>76.488989106353984</v>
+        <v>49.187977672913519</v>
       </c>
       <c r="F132">
         <f t="shared" ca="1" si="7"/>
-        <v>172.3715980088939</v>
+        <v>184.14427304852046</v>
       </c>
       <c r="G132">
         <f t="shared" ca="1" si="8"/>
-        <v>9819.0405869066126</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>5500.1162836008943</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="3" t="s">
         <v>265</v>
       </c>
@@ -5543,18 +5945,21 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="6"/>
-        <v>67.703719763012799</v>
+        <v>68.525499405759632</v>
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="7"/>
-        <v>121.41507389790426</v>
+        <v>123.08701662977022</v>
       </c>
       <c r="G133">
         <f t="shared" ca="1" si="8"/>
-        <v>8295.9490130819358</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>8544.6103918122972</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="3" t="s">
         <v>267</v>
       </c>
@@ -5569,18 +5974,21 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="6"/>
-        <v>63.321753111346737</v>
+        <v>68.536098246515152</v>
       </c>
       <c r="F134">
         <f t="shared" ca="1" si="7"/>
-        <v>111.58459711265168</v>
+        <v>150.17118323615068</v>
       </c>
       <c r="G134">
         <f t="shared" ca="1" si="8"/>
-        <v>359.24740687611643</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>995.32551341866451</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="3" t="s">
         <v>269</v>
       </c>
@@ -5595,18 +6003,21 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="6"/>
-        <v>10.119104540378832</v>
+        <v>38.764407227292899</v>
       </c>
       <c r="F135">
         <f t="shared" ca="1" si="7"/>
-        <v>156.17888397910951</v>
+        <v>102.24802283960076</v>
       </c>
       <c r="G135">
         <f t="shared" ca="1" si="8"/>
-        <v>5561.6255300840448</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>9280.9373818759304</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="3" t="s">
         <v>271</v>
       </c>
@@ -5621,18 +6032,21 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="6"/>
-        <v>82.378996102800784</v>
+        <v>1.3886181963916777</v>
       </c>
       <c r="F136">
         <f t="shared" ca="1" si="7"/>
-        <v>193.40741647729783</v>
+        <v>159.55119284711154</v>
       </c>
       <c r="G136">
         <f t="shared" ca="1" si="8"/>
-        <v>1505.4800468758733</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>2920.5531489420409</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="3" t="s">
         <v>273</v>
       </c>
@@ -5647,18 +6061,21 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="6"/>
-        <v>92.174162856012614</v>
+        <v>30.090416583294001</v>
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="7"/>
-        <v>168.15643449819407</v>
+        <v>144.1288447314592</v>
       </c>
       <c r="G137">
         <f t="shared" ca="1" si="8"/>
-        <v>7851.0547869169959</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>6533.3684871264986</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="3" t="s">
         <v>275</v>
       </c>
@@ -5673,18 +6090,21 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="6"/>
-        <v>47.082585477625649</v>
+        <v>30.122137727323317</v>
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="7"/>
-        <v>161.54402171161908</v>
+        <v>110.912132786192</v>
       </c>
       <c r="G138">
         <f t="shared" ca="1" si="8"/>
-        <v>5844.5423269571338</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>8803.3203928625753</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="3" t="s">
         <v>277</v>
       </c>
@@ -5699,18 +6119,21 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="6"/>
-        <v>59.325075579253493</v>
+        <v>70.900280543589005</v>
       </c>
       <c r="F139">
         <f t="shared" ca="1" si="7"/>
-        <v>102.39283541406144</v>
+        <v>191.35789015050108</v>
       </c>
       <c r="G139">
         <f t="shared" ca="1" si="8"/>
-        <v>8643.1348563525917</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>8346.3009787668343</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="3" t="s">
         <v>279</v>
       </c>
@@ -5725,18 +6148,21 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="6"/>
-        <v>22.772303266691416</v>
+        <v>16.90597671712516</v>
       </c>
       <c r="F140">
         <f t="shared" ca="1" si="7"/>
-        <v>184.71808456411725</v>
+        <v>185.9220667753662</v>
       </c>
       <c r="G140">
         <f t="shared" ca="1" si="8"/>
-        <v>1876.8759198337625</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>2533.3285108252667</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="3" t="s">
         <v>281</v>
       </c>
@@ -5751,18 +6177,21 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5168429596616058</v>
+        <v>81.874127621322955</v>
       </c>
       <c r="F141">
         <f t="shared" ca="1" si="7"/>
-        <v>144.53321504161752</v>
+        <v>193.96334164177972</v>
       </c>
       <c r="G141">
         <f t="shared" ca="1" si="8"/>
-        <v>8511.8755065609075</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>3879.2623743698919</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="3" t="s">
         <v>283</v>
       </c>
@@ -5777,18 +6206,21 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="6"/>
-        <v>91.241462535091671</v>
+        <v>61.538562997759641</v>
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="7"/>
-        <v>178.59740032189731</v>
+        <v>164.37932558646082</v>
       </c>
       <c r="G142">
         <f t="shared" ca="1" si="8"/>
-        <v>3179.7617618998697</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>3819.542683360201</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="3" t="s">
         <v>285</v>
       </c>
@@ -5803,18 +6235,21 @@
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="6"/>
-        <v>38.802245520656498</v>
+        <v>8.4414728081040113</v>
       </c>
       <c r="F143">
         <f t="shared" ca="1" si="7"/>
-        <v>189.07755766148404</v>
+        <v>177.24882599047044</v>
       </c>
       <c r="G143">
         <f t="shared" ca="1" si="8"/>
-        <v>4050.9329884349299</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>6757.8803932614564</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="3" t="s">
         <v>287</v>
       </c>
@@ -5829,18 +6264,21 @@
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="6"/>
-        <v>59.665108874546377</v>
+        <v>70.059612833796166</v>
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="7"/>
-        <v>157.82945708018451</v>
+        <v>176.74068783367375</v>
       </c>
       <c r="G144">
         <f t="shared" ca="1" si="8"/>
-        <v>9260.6611300616169</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>1647.8666101513884</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="3" t="s">
         <v>289</v>
       </c>
@@ -5855,18 +6293,21 @@
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="6"/>
-        <v>71.874322367777864</v>
+        <v>5.9590911774875295</v>
       </c>
       <c r="F145">
         <f t="shared" ca="1" si="7"/>
-        <v>173.57847799999456</v>
+        <v>138.64196544008237</v>
       </c>
       <c r="G145">
         <f t="shared" ca="1" si="8"/>
-        <v>3906.7409685154098</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>4554.7736424350896</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="3" t="s">
         <v>291</v>
       </c>
@@ -5881,18 +6322,21 @@
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="6"/>
-        <v>19.61729755260999</v>
+        <v>37.414091244162215</v>
       </c>
       <c r="F146">
         <f t="shared" ca="1" si="7"/>
-        <v>157.96841642741578</v>
+        <v>170.19269241484631</v>
       </c>
       <c r="G146">
         <f t="shared" ca="1" si="8"/>
-        <v>5246.8166419569252</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>4903.9645455502232</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="3" t="s">
         <v>293</v>
       </c>
@@ -5907,18 +6351,21 @@
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="6"/>
-        <v>79.10781556293081</v>
+        <v>3.1077595055839735</v>
       </c>
       <c r="F147">
         <f t="shared" ca="1" si="7"/>
-        <v>134.77987973554099</v>
+        <v>132.00979412009946</v>
       </c>
       <c r="G147">
         <f t="shared" ca="1" si="8"/>
-        <v>2648.0620340989503</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>7666.9167694904418</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="3" t="s">
         <v>295</v>
       </c>
@@ -5933,18 +6380,21 @@
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="6"/>
-        <v>56.215726636489315</v>
+        <v>40.471866812203181</v>
       </c>
       <c r="F148">
         <f t="shared" ca="1" si="7"/>
-        <v>182.94931072531688</v>
+        <v>103.74522497937133</v>
       </c>
       <c r="G148">
         <f t="shared" ca="1" si="8"/>
-        <v>6106.2474203622478</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>8698.8499103281138</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="3" t="s">
         <v>297</v>
       </c>
@@ -5959,18 +6409,21 @@
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="6"/>
-        <v>83.876183371456079</v>
+        <v>35.964441481496976</v>
       </c>
       <c r="F149">
         <f t="shared" ca="1" si="7"/>
-        <v>177.15446318903312</v>
+        <v>194.68199785857348</v>
       </c>
       <c r="G149">
         <f t="shared" ca="1" si="8"/>
-        <v>4526.8385998132635</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>6540.4783407137375</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="3" t="s">
         <v>299</v>
       </c>
@@ -5985,18 +6438,21 @@
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="6"/>
-        <v>11.296382865997213</v>
+        <v>21.997195688121295</v>
       </c>
       <c r="F150">
         <f t="shared" ca="1" si="7"/>
-        <v>107.20587102100504</v>
+        <v>187.86319406388785</v>
       </c>
       <c r="G150">
         <f t="shared" ca="1" si="8"/>
-        <v>3068.5344143460379</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>6816.8802224600722</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="3" t="s">
         <v>301</v>
       </c>
@@ -6011,18 +6467,21 @@
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="6"/>
-        <v>71.428444132252949</v>
+        <v>9.2491199325307463</v>
       </c>
       <c r="F151">
         <f t="shared" ca="1" si="7"/>
-        <v>102.77418224687277</v>
+        <v>117.19454100022924</v>
       </c>
       <c r="G151">
         <f t="shared" ca="1" si="8"/>
-        <v>2169.6962749284885</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>1116.0976806371502</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="3" t="s">
         <v>303</v>
       </c>
@@ -6037,18 +6496,21 @@
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="6"/>
-        <v>50.264662232998191</v>
+        <v>51.783120296768871</v>
       </c>
       <c r="F152">
         <f t="shared" ca="1" si="7"/>
-        <v>125.59932298979598</v>
+        <v>133.40198461412979</v>
       </c>
       <c r="G152">
         <f t="shared" ca="1" si="8"/>
-        <v>7897.1989426560585</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>7391.3403625965375</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="3" t="s">
         <v>305</v>
       </c>
@@ -6063,18 +6525,21 @@
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="6"/>
-        <v>91.533236599983795</v>
+        <v>78.745521412854487</v>
       </c>
       <c r="F153">
         <f t="shared" ca="1" si="7"/>
-        <v>153.94764903912298</v>
+        <v>164.29137885396023</v>
       </c>
       <c r="G153">
         <f t="shared" ca="1" si="8"/>
-        <v>8234.2907228202348</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>8099.0692098895688</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="3" t="s">
         <v>307</v>
       </c>
@@ -6089,18 +6554,21 @@
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="6"/>
-        <v>28.365639933454535</v>
+        <v>45.554312557860079</v>
       </c>
       <c r="F154">
         <f t="shared" ca="1" si="7"/>
-        <v>142.88152430217866</v>
+        <v>165.94206537720567</v>
       </c>
       <c r="G154">
         <f t="shared" ca="1" si="8"/>
-        <v>2663.0420439229351</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>9119.8272089650291</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="3" t="s">
         <v>309</v>
       </c>
@@ -6115,18 +6583,21 @@
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="6"/>
-        <v>32.299354845409866</v>
+        <v>37.288994264339017</v>
       </c>
       <c r="F155">
         <f t="shared" ca="1" si="7"/>
-        <v>147.47562971128838</v>
+        <v>102.33939837284684</v>
       </c>
       <c r="G155">
         <f t="shared" ca="1" si="8"/>
-        <v>4719.9942389712605</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>1255.0982393552545</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="3" t="s">
         <v>311</v>
       </c>
@@ -6141,18 +6612,21 @@
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="6"/>
-        <v>83.901739861565332</v>
+        <v>16.329624800351905</v>
       </c>
       <c r="F156">
         <f t="shared" ca="1" si="7"/>
-        <v>154.97239692118242</v>
+        <v>127.21946085175055</v>
       </c>
       <c r="G156">
         <f t="shared" ca="1" si="8"/>
-        <v>174.92893537446764</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>127.06232514440585</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="3" t="s">
         <v>313</v>
       </c>
@@ -6167,18 +6641,21 @@
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="6"/>
-        <v>53.775112859992468</v>
+        <v>8.0185361476809334</v>
       </c>
       <c r="F157">
         <f t="shared" ca="1" si="7"/>
-        <v>124.663736843191</v>
+        <v>170.45302463448235</v>
       </c>
       <c r="G157">
         <f t="shared" ca="1" si="8"/>
-        <v>7313.1171808870567</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>9420.0278596470089</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="3" t="s">
         <v>315</v>
       </c>
@@ -6193,18 +6670,21 @@
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="6"/>
-        <v>10.795714468778995</v>
+        <v>73.818249941189663</v>
       </c>
       <c r="F158">
         <f t="shared" ca="1" si="7"/>
-        <v>100.31995691523929</v>
+        <v>155.37734041171905</v>
       </c>
       <c r="G158">
         <f t="shared" ca="1" si="8"/>
-        <v>6851.9749506840326</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>651.73317404383477</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="3" t="s">
         <v>317</v>
       </c>
@@ -6219,18 +6699,21 @@
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="6"/>
-        <v>46.169219316727315</v>
+        <v>10.626506045028217</v>
       </c>
       <c r="F159">
         <f t="shared" ca="1" si="7"/>
-        <v>103.70025816544586</v>
+        <v>141.49189738141212</v>
       </c>
       <c r="G159">
         <f t="shared" ca="1" si="8"/>
-        <v>2444.3693658469956</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>8450.8144895078203</v>
+      </c>
+      <c r="H159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="3" t="s">
         <v>319</v>
       </c>
@@ -6245,18 +6728,21 @@
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="6"/>
-        <v>79.331346196115575</v>
+        <v>98.627860268266517</v>
       </c>
       <c r="F160">
         <f t="shared" ca="1" si="7"/>
-        <v>199.11542113155656</v>
+        <v>193.04819263540179</v>
       </c>
       <c r="G160">
         <f t="shared" ca="1" si="8"/>
-        <v>9294.9573634555491</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>966.62575770633646</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="3" t="s">
         <v>321</v>
       </c>
@@ -6271,18 +6757,21 @@
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="6"/>
-        <v>7.7244938194887203</v>
+        <v>20.594788098961679</v>
       </c>
       <c r="F161">
         <f t="shared" ca="1" si="7"/>
-        <v>162.24861806031123</v>
+        <v>176.91056927627562</v>
       </c>
       <c r="G161">
         <f t="shared" ca="1" si="8"/>
-        <v>4544.1096170776655</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>3915.9438419519856</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="3" t="s">
         <v>323</v>
       </c>
@@ -6297,18 +6786,21 @@
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="6"/>
-        <v>89.237934201085267</v>
+        <v>21.077203103235476</v>
       </c>
       <c r="F162">
         <f t="shared" ca="1" si="7"/>
-        <v>100.33101738774776</v>
+        <v>126.77522887103356</v>
       </c>
       <c r="G162">
         <f t="shared" ca="1" si="8"/>
-        <v>1097.7277767321548</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>1756.8969756169261</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="3" t="s">
         <v>325</v>
       </c>
@@ -6323,18 +6815,21 @@
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="6"/>
-        <v>97.635662630309156</v>
+        <v>30.507074366208265</v>
       </c>
       <c r="F163">
         <f t="shared" ca="1" si="7"/>
-        <v>143.68476492590105</v>
+        <v>139.29021088730525</v>
       </c>
       <c r="G163">
         <f t="shared" ca="1" si="8"/>
-        <v>9775.7984272256817</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>7069.5483589794703</v>
+      </c>
+      <c r="H163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="3" t="s">
         <v>327</v>
       </c>
@@ -6349,18 +6844,21 @@
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="6"/>
-        <v>39.735386077072988</v>
+        <v>88.074316065938234</v>
       </c>
       <c r="F164">
         <f t="shared" ca="1" si="7"/>
-        <v>116.61302508763748</v>
+        <v>139.29069105622793</v>
       </c>
       <c r="G164">
         <f t="shared" ca="1" si="8"/>
-        <v>5606.6821895608255</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>378.73484324712047</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="3" t="s">
         <v>329</v>
       </c>
@@ -6375,18 +6873,21 @@
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="6"/>
-        <v>63.712129889865132</v>
+        <v>98.857173572725756</v>
       </c>
       <c r="F165">
         <f t="shared" ca="1" si="7"/>
-        <v>100.11183724127314</v>
+        <v>174.00730867508585</v>
       </c>
       <c r="G165">
         <f t="shared" ca="1" si="8"/>
-        <v>3380.4014487239888</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>3052.5127440219367</v>
+      </c>
+      <c r="H165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="3" t="s">
         <v>331</v>
       </c>
@@ -6401,18 +6902,21 @@
       </c>
       <c r="E166">
         <f t="shared" ca="1" si="6"/>
-        <v>83.150686526591926</v>
+        <v>89.794409251041273</v>
       </c>
       <c r="F166">
         <f t="shared" ca="1" si="7"/>
-        <v>108.89233673599244</v>
+        <v>100.49714125386767</v>
       </c>
       <c r="G166">
         <f t="shared" ca="1" si="8"/>
-        <v>1422.7385197808685</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>9479.1768754743971</v>
+      </c>
+      <c r="H166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="3" t="s">
         <v>333</v>
       </c>
@@ -6427,18 +6931,21 @@
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4936019124816493</v>
+        <v>17.613600408079122</v>
       </c>
       <c r="F167">
         <f t="shared" ca="1" si="7"/>
-        <v>178.05173852730269</v>
+        <v>185.97215877976694</v>
       </c>
       <c r="G167">
         <f t="shared" ca="1" si="8"/>
-        <v>5713.4313488737034</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>7322.3848590507423</v>
+      </c>
+      <c r="H167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="3" t="s">
         <v>335</v>
       </c>
@@ -6453,18 +6960,21 @@
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="6"/>
-        <v>38.629796174599761</v>
+        <v>82.799424269531087</v>
       </c>
       <c r="F168">
         <f t="shared" ca="1" si="7"/>
-        <v>137.41965772120017</v>
+        <v>130.50672489401853</v>
       </c>
       <c r="G168">
         <f t="shared" ca="1" si="8"/>
-        <v>9371.7199922610835</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>9655.7772212585023</v>
+      </c>
+      <c r="H168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="3" t="s">
         <v>337</v>
       </c>
@@ -6479,18 +6989,21 @@
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="6"/>
-        <v>50.926995406272837</v>
+        <v>98.76036491826514</v>
       </c>
       <c r="F169">
         <f t="shared" ca="1" si="7"/>
-        <v>195.92136215141323</v>
+        <v>171.00733995185539</v>
       </c>
       <c r="G169">
         <f t="shared" ca="1" si="8"/>
-        <v>161.56699465710855</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>6852.4545386852506</v>
+      </c>
+      <c r="H169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="3" t="s">
         <v>339</v>
       </c>
@@ -6505,18 +7018,21 @@
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="6"/>
-        <v>20.976237184723956</v>
+        <v>1.6996079902514394</v>
       </c>
       <c r="F170">
         <f t="shared" ca="1" si="7"/>
-        <v>102.89739293599777</v>
+        <v>186.33372274858831</v>
       </c>
       <c r="G170">
         <f t="shared" ca="1" si="8"/>
-        <v>7093.7932103497851</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>2803.9347729345877</v>
+      </c>
+      <c r="H170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="3" t="s">
         <v>341</v>
       </c>
@@ -6531,18 +7047,21 @@
       </c>
       <c r="E171">
         <f t="shared" ca="1" si="6"/>
-        <v>24.372658707561754</v>
+        <v>86.098452268271188</v>
       </c>
       <c r="F171">
         <f t="shared" ca="1" si="7"/>
-        <v>164.32422519469134</v>
+        <v>184.07644324522596</v>
       </c>
       <c r="G171">
         <f t="shared" ca="1" si="8"/>
-        <v>3277.019023027995</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>9700.3233131961715</v>
+      </c>
+      <c r="H171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="3" t="s">
         <v>343</v>
       </c>
@@ -6557,18 +7076,21 @@
       </c>
       <c r="E172">
         <f t="shared" ca="1" si="6"/>
-        <v>66.104894077940884</v>
+        <v>79.211643500398182</v>
       </c>
       <c r="F172">
         <f t="shared" ca="1" si="7"/>
-        <v>196.52449849679007</v>
+        <v>132.20199106715083</v>
       </c>
       <c r="G172">
         <f t="shared" ca="1" si="8"/>
-        <v>9291.1264938834265</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>9244.5641764733246</v>
+      </c>
+      <c r="H172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="3" t="s">
         <v>345</v>
       </c>
@@ -6583,18 +7105,21 @@
       </c>
       <c r="E173">
         <f t="shared" ca="1" si="6"/>
-        <v>14.264850125655926</v>
+        <v>81.146448908258847</v>
       </c>
       <c r="F173">
         <f t="shared" ca="1" si="7"/>
-        <v>118.05192827709264</v>
+        <v>190.01200822858772</v>
       </c>
       <c r="G173">
         <f t="shared" ca="1" si="8"/>
-        <v>432.56339706174043</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>1617.4035425308241</v>
+      </c>
+      <c r="H173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="3" t="s">
         <v>347</v>
       </c>
@@ -6609,18 +7134,21 @@
       </c>
       <c r="E174">
         <f t="shared" ca="1" si="6"/>
-        <v>71.904047176551231</v>
+        <v>70.152996943930205</v>
       </c>
       <c r="F174">
         <f t="shared" ca="1" si="7"/>
-        <v>137.55380814705748</v>
+        <v>117.85804231217939</v>
       </c>
       <c r="G174">
         <f t="shared" ca="1" si="8"/>
-        <v>780.64701942967997</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>3142.2810467969653</v>
+      </c>
+      <c r="H174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="3" t="s">
         <v>349</v>
       </c>
@@ -6635,18 +7163,21 @@
       </c>
       <c r="E175">
         <f t="shared" ca="1" si="6"/>
-        <v>63.621612634995472</v>
+        <v>77.654682873658061</v>
       </c>
       <c r="F175">
         <f t="shared" ca="1" si="7"/>
-        <v>115.08667969947112</v>
+        <v>195.16581226714268</v>
       </c>
       <c r="G175">
         <f t="shared" ca="1" si="8"/>
-        <v>7376.7843191665816</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>3858.0319988701895</v>
+      </c>
+      <c r="H175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="3" t="s">
         <v>351</v>
       </c>
@@ -6661,18 +7192,21 @@
       </c>
       <c r="E176">
         <f t="shared" ca="1" si="6"/>
-        <v>20.279280084613106</v>
+        <v>86.663365681795469</v>
       </c>
       <c r="F176">
         <f t="shared" ca="1" si="7"/>
-        <v>115.57394328921286</v>
+        <v>161.28816109970052</v>
       </c>
       <c r="G176">
         <f t="shared" ca="1" si="8"/>
-        <v>6069.8516051035958</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>5639.9470991026519</v>
+      </c>
+      <c r="H176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="3" t="s">
         <v>353</v>
       </c>
@@ -6687,18 +7221,21 @@
       </c>
       <c r="E177">
         <f t="shared" ca="1" si="6"/>
-        <v>10.843823418791665</v>
+        <v>4.3728476280029742</v>
       </c>
       <c r="F177">
         <f t="shared" ca="1" si="7"/>
-        <v>196.97415062177447</v>
+        <v>181.82067559803801</v>
       </c>
       <c r="G177">
         <f t="shared" ca="1" si="8"/>
-        <v>9076.3703038402</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>1469.5450890234674</v>
+      </c>
+      <c r="H177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="3" t="s">
         <v>354</v>
       </c>
@@ -6713,18 +7250,21 @@
       </c>
       <c r="E178">
         <f t="shared" ca="1" si="6"/>
-        <v>17.82637114483423</v>
+        <v>91.401966855288848</v>
       </c>
       <c r="F178">
         <f t="shared" ca="1" si="7"/>
-        <v>143.9177279669731</v>
+        <v>166.56605674970626</v>
       </c>
       <c r="G178">
         <f t="shared" ca="1" si="8"/>
-        <v>196.42104920003399</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>6147.1029957484534</v>
+      </c>
+      <c r="H178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="3" t="s">
         <v>356</v>
       </c>
@@ -6739,18 +7279,21 @@
       </c>
       <c r="E179">
         <f t="shared" ca="1" si="6"/>
-        <v>65.056269284384911</v>
+        <v>49.455015723277896</v>
       </c>
       <c r="F179">
         <f t="shared" ca="1" si="7"/>
-        <v>152.1553128203189</v>
+        <v>118.51657187346042</v>
       </c>
       <c r="G179">
         <f t="shared" ca="1" si="8"/>
-        <v>9781.4717269323573</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>1183.5813467989299</v>
+      </c>
+      <c r="H179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="3" t="s">
         <v>358</v>
       </c>
@@ -6765,18 +7308,21 @@
       </c>
       <c r="E180">
         <f t="shared" ca="1" si="6"/>
-        <v>24.933892488285856</v>
+        <v>6.8548432360983069</v>
       </c>
       <c r="F180">
         <f t="shared" ca="1" si="7"/>
-        <v>102.76798477762974</v>
+        <v>165.87578795656509</v>
       </c>
       <c r="G180">
         <f t="shared" ca="1" si="8"/>
-        <v>7351.0677686970503</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>4197.4116744139137</v>
+      </c>
+      <c r="H180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="3" t="s">
         <v>359</v>
       </c>
@@ -6791,18 +7337,21 @@
       </c>
       <c r="E181">
         <f t="shared" ca="1" si="6"/>
-        <v>21.412461950005024</v>
+        <v>41.457241988125304</v>
       </c>
       <c r="F181">
         <f t="shared" ca="1" si="7"/>
-        <v>103.12551713702899</v>
+        <v>175.46475040020016</v>
       </c>
       <c r="G181">
         <f t="shared" ca="1" si="8"/>
-        <v>6670.7613208206631</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>6830.0332993371012</v>
+      </c>
+      <c r="H181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="3" t="s">
         <v>361</v>
       </c>
@@ -6817,18 +7366,21 @@
       </c>
       <c r="E182">
         <f t="shared" ca="1" si="6"/>
-        <v>93.071404725099526</v>
+        <v>72.86978305508093</v>
       </c>
       <c r="F182">
         <f t="shared" ca="1" si="7"/>
-        <v>125.98505235856985</v>
+        <v>133.06715825872442</v>
       </c>
       <c r="G182">
         <f t="shared" ca="1" si="8"/>
-        <v>1945.9291915342535</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>141.07665544023206</v>
+      </c>
+      <c r="H182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="3" t="s">
         <v>362</v>
       </c>
@@ -6843,15 +7395,18 @@
       </c>
       <c r="E183">
         <f t="shared" ca="1" si="6"/>
-        <v>30.171027417006002</v>
+        <v>17.993178551597634</v>
       </c>
       <c r="F183">
         <f t="shared" ca="1" si="7"/>
-        <v>111.49821870240993</v>
+        <v>117.37670809996339</v>
       </c>
       <c r="G183">
         <f t="shared" ca="1" si="8"/>
-        <v>268.90169032230295</v>
+        <v>4701.7505720045083</v>
+      </c>
+      <c r="H183">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
